--- a/public/files/articulos-base.xlsx
+++ b/public/files/articulos-base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\OneDrive\Documentos\comerciocity\excels base\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,21 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Nombre</t>
+  </si>
   <si>
     <t>Codigo de barras</t>
   </si>
   <si>
-    <t>Nombre</t>
+    <t>Stock actual</t>
+  </si>
+  <si>
+    <t>Stock minimo</t>
+  </si>
+  <si>
+    <t>Iva</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
   </si>
   <si>
     <t>Costo</t>
   </si>
   <si>
+    <t>Utilidad</t>
+  </si>
+  <si>
     <t>Precio</t>
   </si>
   <si>
-    <t>Stock</t>
+    <t>Codigo de proveedor</t>
   </si>
 </sst>
 </file>
@@ -94,14 +109,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:E2"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Codigo de barras"/>
-    <tableColumn id="2" name="Nombre"/>
-    <tableColumn id="3" name="Costo"/>
-    <tableColumn id="4" name="Precio"/>
-    <tableColumn id="5" name="Stock"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:J2"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Nombre"/>
+    <tableColumn id="2" name="Codigo de barras"/>
+    <tableColumn id="3" name="Codigo de proveedor"/>
+    <tableColumn id="4" name="Stock actual"/>
+    <tableColumn id="5" name="Stock minimo"/>
+    <tableColumn id="6" name="Iva"/>
+    <tableColumn id="7" name="Proveedor"/>
+    <tableColumn id="8" name="Costo"/>
+    <tableColumn id="9" name="Utilidad"/>
+    <tableColumn id="10" name="Precio"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -370,18 +390,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,20 +409,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/public/files/articulos-base.xlsx
+++ b/public/files/articulos-base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\OneDrive\Documentos\comerciocity\excels base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\OneDrive\Documentos\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Codigo de barras</t>
+  </si>
+  <si>
+    <t>Codigo de proveedor</t>
+  </si>
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Codigo de barras</t>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Sub Categoria</t>
   </si>
   <si>
     <t>Stock actual</t>
@@ -47,13 +56,16 @@
     <t>Costo</t>
   </si>
   <si>
-    <t>Utilidad</t>
+    <t>Margen de ganancia</t>
+  </si>
+  <si>
+    <t>Descuentos</t>
   </si>
   <si>
     <t>Precio</t>
   </si>
   <si>
-    <t>Codigo de proveedor</t>
+    <t>Moneda</t>
   </si>
 </sst>
 </file>
@@ -109,19 +121,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:J2"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Nombre"/>
-    <tableColumn id="2" name="Codigo de barras"/>
-    <tableColumn id="3" name="Codigo de proveedor"/>
-    <tableColumn id="4" name="Stock actual"/>
-    <tableColumn id="5" name="Stock minimo"/>
-    <tableColumn id="6" name="Iva"/>
-    <tableColumn id="7" name="Proveedor"/>
-    <tableColumn id="8" name="Costo"/>
-    <tableColumn id="9" name="Utilidad"/>
-    <tableColumn id="10" name="Precio"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:N2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:N2"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Codigo de barras"/>
+    <tableColumn id="2" name="Codigo de proveedor"/>
+    <tableColumn id="3" name="Nombre"/>
+    <tableColumn id="4" name="Categoria"/>
+    <tableColumn id="5" name="Sub Categoria"/>
+    <tableColumn id="6" name="Stock actual"/>
+    <tableColumn id="7" name="Stock minimo"/>
+    <tableColumn id="8" name="Iva"/>
+    <tableColumn id="9" name="Proveedor"/>
+    <tableColumn id="10" name="Costo"/>
+    <tableColumn id="11" name="Margen de ganancia"/>
+    <tableColumn id="12" name="Descuentos"/>
+    <tableColumn id="13" name="Precio"/>
+    <tableColumn id="14" name="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -390,18 +406,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="12" customWidth="1"/>
+    <col min="10" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,28 +426,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/articulos-base.xlsx
+++ b/public/files/articulos-base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\OneDrive\Documentos\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\miregistrodeventas-spa\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/files/articulos-base.xlsx
+++ b/public/files/articulos-base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Codigo de barras</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Moneda</t>
+  </si>
+  <si>
+    <t>Codigo</t>
   </si>
 </sst>
 </file>
@@ -121,23 +124,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:N2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:N2"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Codigo de barras"/>
-    <tableColumn id="2" name="Codigo de proveedor"/>
-    <tableColumn id="3" name="Nombre"/>
-    <tableColumn id="4" name="Categoria"/>
-    <tableColumn id="5" name="Sub Categoria"/>
-    <tableColumn id="6" name="Stock actual"/>
-    <tableColumn id="7" name="Stock minimo"/>
-    <tableColumn id="8" name="Iva"/>
-    <tableColumn id="9" name="Proveedor"/>
-    <tableColumn id="10" name="Costo"/>
-    <tableColumn id="11" name="Margen de ganancia"/>
-    <tableColumn id="12" name="Descuentos"/>
-    <tableColumn id="13" name="Precio"/>
-    <tableColumn id="14" name="Moneda"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:O2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:O2"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Codigo"/>
+    <tableColumn id="2" name="Codigo de barras"/>
+    <tableColumn id="3" name="Codigo de proveedor"/>
+    <tableColumn id="4" name="Nombre"/>
+    <tableColumn id="5" name="Categoria"/>
+    <tableColumn id="6" name="Sub Categoria"/>
+    <tableColumn id="7" name="Stock actual"/>
+    <tableColumn id="8" name="Stock minimo"/>
+    <tableColumn id="9" name="Iva"/>
+    <tableColumn id="10" name="Proveedor"/>
+    <tableColumn id="11" name="Costo"/>
+    <tableColumn id="12" name="Margen de ganancia"/>
+    <tableColumn id="13" name="Descuentos"/>
+    <tableColumn id="14" name="Precio"/>
+    <tableColumn id="15" name="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -406,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,47 +422,50 @@
     <col min="10" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
